--- a/practica 2/diagramas/Ejer 4 diagramas.xlsx
+++ b/practica 2/diagramas/Ejer 4 diagramas.xlsx
@@ -1,27 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agustin\Desktop\facu\2do\2do semestre\iso\practica 2\diagramas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguspc\Desktop\facu\2do\2do semestre\ISO\practica 2\diagramas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C35429A4-2D6C-44D4-A382-B90DED295EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C625F2-53C9-464E-A4AC-49E1AED25A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F2353754-173D-4900-A564-D1A35AFCC5F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F2353754-173D-4900-A564-D1A35AFCC5F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -208,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -240,15 +248,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -269,9 +276,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -309,7 +316,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -415,7 +422,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -557,7 +564,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -567,24 +574,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E405A4-94DC-495B-8410-413350238889}">
   <dimension ref="A1:AY26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="AA27" sqref="AA27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="33" width="4.140625" customWidth="1"/>
-    <col min="34" max="51" width="3.7109375" customWidth="1"/>
+    <col min="5" max="25" width="4.109375" customWidth="1"/>
+    <col min="26" max="26" width="4.5546875" customWidth="1"/>
+    <col min="27" max="33" width="4.109375" customWidth="1"/>
+    <col min="34" max="51" width="3.6640625" customWidth="1"/>
     <col min="52" max="53" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,35 +669,15 @@
       <c r="Y2" s="3">
         <v>20</v>
       </c>
-      <c r="Z2" s="16" t="s">
+      <c r="Z2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="AA2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13"/>
-      <c r="AM2" s="13"/>
-      <c r="AN2" s="13"/>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="13"/>
-      <c r="AQ2" s="13"/>
-      <c r="AR2" s="13"/>
-      <c r="AS2" s="13"/>
-      <c r="AT2" s="13"/>
-      <c r="AU2" s="13"/>
-      <c r="AV2" s="13"/>
-      <c r="AW2" s="13"/>
-      <c r="AX2" s="13"/>
-      <c r="AY2" s="14"/>
-    </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY2" s="13"/>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -734,29 +723,29 @@
       <c r="AA3" s="7">
         <v>0</v>
       </c>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="15"/>
-      <c r="AO3" s="15"/>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15"/>
-      <c r="AR3" s="15"/>
-      <c r="AS3" s="15"/>
-      <c r="AT3" s="15"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-    </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14"/>
+      <c r="AY3" s="14"/>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -808,29 +797,29 @@
       <c r="AA4" s="7">
         <v>2</v>
       </c>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="15"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="15"/>
-      <c r="AJ4" s="15"/>
-      <c r="AK4" s="15"/>
-      <c r="AL4" s="15"/>
-      <c r="AM4" s="15"/>
-      <c r="AN4" s="15"/>
-      <c r="AO4" s="15"/>
-      <c r="AP4" s="15"/>
-      <c r="AQ4" s="15"/>
-      <c r="AR4" s="15"/>
-      <c r="AS4" s="15"/>
-      <c r="AT4" s="15"/>
-      <c r="AU4" s="15"/>
-      <c r="AV4" s="15"/>
-      <c r="AW4" s="15"/>
-      <c r="AX4" s="15"/>
-      <c r="AY4" s="15"/>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="14"/>
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="14"/>
+      <c r="AO4" s="14"/>
+      <c r="AP4" s="14"/>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="14"/>
+      <c r="AS4" s="14"/>
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="14"/>
+      <c r="AV4" s="14"/>
+      <c r="AW4" s="14"/>
+      <c r="AX4" s="14"/>
+      <c r="AY4" s="14"/>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -878,29 +867,29 @@
       <c r="AA5" s="7">
         <v>7</v>
       </c>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="15"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="15"/>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="15"/>
-      <c r="AM5" s="15"/>
-      <c r="AN5" s="15"/>
-      <c r="AO5" s="15"/>
-      <c r="AP5" s="15"/>
-      <c r="AQ5" s="15"/>
-      <c r="AR5" s="15"/>
-      <c r="AS5" s="15"/>
-      <c r="AT5" s="15"/>
-      <c r="AU5" s="15"/>
-      <c r="AV5" s="15"/>
-      <c r="AW5" s="15"/>
-      <c r="AX5" s="15"/>
-      <c r="AY5" s="15"/>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="14"/>
+      <c r="AK5" s="14"/>
+      <c r="AL5" s="14"/>
+      <c r="AM5" s="14"/>
+      <c r="AN5" s="14"/>
+      <c r="AO5" s="14"/>
+      <c r="AP5" s="14"/>
+      <c r="AQ5" s="14"/>
+      <c r="AR5" s="14"/>
+      <c r="AS5" s="14"/>
+      <c r="AT5" s="14"/>
+      <c r="AU5" s="14"/>
+      <c r="AV5" s="14"/>
+      <c r="AW5" s="14"/>
+      <c r="AX5" s="14"/>
+      <c r="AY5" s="14"/>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -950,29 +939,29 @@
       <c r="AA6" s="7">
         <v>8</v>
       </c>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="15"/>
-      <c r="AN6" s="15"/>
-      <c r="AO6" s="15"/>
-      <c r="AP6" s="15"/>
-      <c r="AQ6" s="15"/>
-      <c r="AR6" s="15"/>
-      <c r="AS6" s="15"/>
-      <c r="AT6" s="15"/>
-      <c r="AU6" s="15"/>
-      <c r="AV6" s="15"/>
-      <c r="AW6" s="15"/>
-      <c r="AX6" s="15"/>
-      <c r="AY6" s="15"/>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="14"/>
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="14"/>
+      <c r="AM6" s="14"/>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="14"/>
+      <c r="AQ6" s="14"/>
+      <c r="AR6" s="14"/>
+      <c r="AS6" s="14"/>
+      <c r="AT6" s="14"/>
+      <c r="AU6" s="14"/>
+      <c r="AV6" s="14"/>
+      <c r="AW6" s="14"/>
+      <c r="AX6" s="14"/>
+      <c r="AY6" s="14"/>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1016,29 +1005,29 @@
       <c r="AA7" s="7">
         <v>11</v>
       </c>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="15"/>
-      <c r="AH7" s="15"/>
-      <c r="AI7" s="15"/>
-      <c r="AJ7" s="15"/>
-      <c r="AK7" s="15"/>
-      <c r="AL7" s="15"/>
-      <c r="AM7" s="15"/>
-      <c r="AN7" s="15"/>
-      <c r="AO7" s="15"/>
-      <c r="AP7" s="15"/>
-      <c r="AQ7" s="15"/>
-      <c r="AR7" s="15"/>
-      <c r="AS7" s="15"/>
-      <c r="AT7" s="15"/>
-      <c r="AU7" s="15"/>
-      <c r="AV7" s="15"/>
-      <c r="AW7" s="15"/>
-      <c r="AX7" s="15"/>
-      <c r="AY7" s="15"/>
-    </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="14"/>
+      <c r="AS7" s="14"/>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="14"/>
+      <c r="AW7" s="14"/>
+      <c r="AX7" s="14"/>
+      <c r="AY7" s="14"/>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
@@ -1067,51 +1056,44 @@
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
       <c r="Z8" s="12">
-        <f>ROUND(AVERAGE(Z3,Z7),1)</f>
-        <v>8.5</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AA8" s="9">
         <f>ROUND(AVERAGE(AA3,AA7),1)</f>
         <v>5.5</v>
       </c>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="15"/>
-      <c r="AH8" s="15"/>
-      <c r="AI8" s="15"/>
-      <c r="AJ8" s="15"/>
-      <c r="AK8" s="15"/>
-      <c r="AL8" s="15"/>
-      <c r="AM8" s="15"/>
-      <c r="AN8" s="15"/>
-      <c r="AO8" s="15"/>
-      <c r="AP8" s="15"/>
-      <c r="AQ8" s="15"/>
-      <c r="AR8" s="15"/>
-      <c r="AS8" s="15"/>
-      <c r="AT8" s="15"/>
-      <c r="AU8" s="15"/>
-      <c r="AV8" s="15"/>
-      <c r="AW8" s="15"/>
-      <c r="AX8" s="15"/>
-      <c r="AY8" s="15"/>
-    </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-    </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="14"/>
+      <c r="AR8" s="14"/>
+      <c r="AS8" s="14"/>
+      <c r="AT8" s="14"/>
+      <c r="AU8" s="14"/>
+      <c r="AV8" s="14"/>
+      <c r="AW8" s="14"/>
+      <c r="AX8" s="14"/>
+      <c r="AY8" s="14"/>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AB9" s="16"/>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-    </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AB10" s="16"/>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -1187,35 +1169,15 @@
       <c r="Y11" s="3">
         <v>20</v>
       </c>
-      <c r="Z11" s="16" t="s">
+      <c r="Z11" s="15" t="s">
         <v>4</v>
       </c>
       <c r="AA11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AH11" s="13"/>
-      <c r="AI11" s="13"/>
-      <c r="AJ11" s="13"/>
-      <c r="AK11" s="13"/>
-      <c r="AL11" s="13"/>
-      <c r="AM11" s="13"/>
-      <c r="AN11" s="13"/>
-      <c r="AO11" s="13"/>
-      <c r="AP11" s="13"/>
-      <c r="AQ11" s="13"/>
-      <c r="AR11" s="13"/>
-      <c r="AS11" s="13"/>
-      <c r="AT11" s="13"/>
-      <c r="AU11" s="13"/>
-      <c r="AV11" s="13"/>
-      <c r="AW11" s="13"/>
-      <c r="AX11" s="13"/>
-      <c r="AY11" s="14"/>
-    </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY11" s="13"/>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -1261,29 +1223,29 @@
       <c r="AA12" s="7">
         <v>0</v>
       </c>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="15"/>
-      <c r="AH12" s="15"/>
-      <c r="AI12" s="15"/>
-      <c r="AJ12" s="15"/>
-      <c r="AK12" s="15"/>
-      <c r="AL12" s="15"/>
-      <c r="AM12" s="15"/>
-      <c r="AN12" s="15"/>
-      <c r="AO12" s="15"/>
-      <c r="AP12" s="15"/>
-      <c r="AQ12" s="15"/>
-      <c r="AR12" s="15"/>
-      <c r="AS12" s="15"/>
-      <c r="AT12" s="15"/>
-      <c r="AU12" s="15"/>
-      <c r="AV12" s="15"/>
-      <c r="AW12" s="15"/>
-      <c r="AX12" s="15"/>
-      <c r="AY12" s="15"/>
-    </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="14"/>
+      <c r="AK12" s="14"/>
+      <c r="AL12" s="14"/>
+      <c r="AM12" s="14"/>
+      <c r="AN12" s="14"/>
+      <c r="AO12" s="14"/>
+      <c r="AP12" s="14"/>
+      <c r="AQ12" s="14"/>
+      <c r="AR12" s="14"/>
+      <c r="AS12" s="14"/>
+      <c r="AT12" s="14"/>
+      <c r="AU12" s="14"/>
+      <c r="AV12" s="14"/>
+      <c r="AW12" s="14"/>
+      <c r="AX12" s="14"/>
+      <c r="AY12" s="14"/>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1335,29 +1297,29 @@
       <c r="AA13" s="7">
         <v>13</v>
       </c>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="15"/>
-      <c r="AH13" s="15"/>
-      <c r="AI13" s="15"/>
-      <c r="AJ13" s="15"/>
-      <c r="AK13" s="15"/>
-      <c r="AL13" s="15"/>
-      <c r="AM13" s="15"/>
-      <c r="AN13" s="15"/>
-      <c r="AO13" s="15"/>
-      <c r="AP13" s="15"/>
-      <c r="AQ13" s="15"/>
-      <c r="AR13" s="15"/>
-      <c r="AS13" s="15"/>
-      <c r="AT13" s="15"/>
-      <c r="AU13" s="15"/>
-      <c r="AV13" s="15"/>
-      <c r="AW13" s="15"/>
-      <c r="AX13" s="15"/>
-      <c r="AY13" s="15"/>
-    </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="14"/>
+      <c r="AM13" s="14"/>
+      <c r="AN13" s="14"/>
+      <c r="AO13" s="14"/>
+      <c r="AP13" s="14"/>
+      <c r="AQ13" s="14"/>
+      <c r="AR13" s="14"/>
+      <c r="AS13" s="14"/>
+      <c r="AT13" s="14"/>
+      <c r="AU13" s="14"/>
+      <c r="AV13" s="14"/>
+      <c r="AW13" s="14"/>
+      <c r="AX13" s="14"/>
+      <c r="AY13" s="14"/>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1405,29 +1367,29 @@
       <c r="AA14" s="7">
         <v>0</v>
       </c>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="15"/>
-      <c r="AH14" s="15"/>
-      <c r="AI14" s="15"/>
-      <c r="AJ14" s="15"/>
-      <c r="AK14" s="15"/>
-      <c r="AL14" s="15"/>
-      <c r="AM14" s="15"/>
-      <c r="AN14" s="15"/>
-      <c r="AO14" s="15"/>
-      <c r="AP14" s="15"/>
-      <c r="AQ14" s="15"/>
-      <c r="AR14" s="15"/>
-      <c r="AS14" s="15"/>
-      <c r="AT14" s="15"/>
-      <c r="AU14" s="15"/>
-      <c r="AV14" s="15"/>
-      <c r="AW14" s="15"/>
-      <c r="AX14" s="15"/>
-      <c r="AY14" s="15"/>
-    </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="14"/>
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="14"/>
+      <c r="AN14" s="14"/>
+      <c r="AO14" s="14"/>
+      <c r="AP14" s="14"/>
+      <c r="AQ14" s="14"/>
+      <c r="AR14" s="14"/>
+      <c r="AS14" s="14"/>
+      <c r="AT14" s="14"/>
+      <c r="AU14" s="14"/>
+      <c r="AV14" s="14"/>
+      <c r="AW14" s="14"/>
+      <c r="AX14" s="14"/>
+      <c r="AY14" s="14"/>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -1477,29 +1439,29 @@
       <c r="AA15" s="7">
         <v>2</v>
       </c>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="15"/>
-      <c r="AH15" s="15"/>
-      <c r="AI15" s="15"/>
-      <c r="AJ15" s="15"/>
-      <c r="AK15" s="15"/>
-      <c r="AL15" s="15"/>
-      <c r="AM15" s="15"/>
-      <c r="AN15" s="15"/>
-      <c r="AO15" s="15"/>
-      <c r="AP15" s="15"/>
-      <c r="AQ15" s="15"/>
-      <c r="AR15" s="15"/>
-      <c r="AS15" s="15"/>
-      <c r="AT15" s="15"/>
-      <c r="AU15" s="15"/>
-      <c r="AV15" s="15"/>
-      <c r="AW15" s="15"/>
-      <c r="AX15" s="15"/>
-      <c r="AY15" s="15"/>
-    </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="14"/>
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="14"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="14"/>
+      <c r="AP15" s="14"/>
+      <c r="AQ15" s="14"/>
+      <c r="AR15" s="14"/>
+      <c r="AS15" s="14"/>
+      <c r="AT15" s="14"/>
+      <c r="AU15" s="14"/>
+      <c r="AV15" s="14"/>
+      <c r="AW15" s="14"/>
+      <c r="AX15" s="14"/>
+      <c r="AY15" s="14"/>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -1543,29 +1505,29 @@
       <c r="AA16" s="7">
         <v>5</v>
       </c>
-      <c r="AC16" s="15"/>
-      <c r="AD16" s="15"/>
-      <c r="AE16" s="15"/>
-      <c r="AH16" s="15"/>
-      <c r="AI16" s="15"/>
-      <c r="AJ16" s="15"/>
-      <c r="AK16" s="15"/>
-      <c r="AL16" s="15"/>
-      <c r="AM16" s="15"/>
-      <c r="AN16" s="15"/>
-      <c r="AO16" s="15"/>
-      <c r="AP16" s="15"/>
-      <c r="AQ16" s="15"/>
-      <c r="AR16" s="15"/>
-      <c r="AS16" s="15"/>
-      <c r="AT16" s="15"/>
-      <c r="AU16" s="15"/>
-      <c r="AV16" s="15"/>
-      <c r="AW16" s="15"/>
-      <c r="AX16" s="15"/>
-      <c r="AY16" s="15"/>
-    </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="14"/>
+      <c r="AK16" s="14"/>
+      <c r="AL16" s="14"/>
+      <c r="AM16" s="14"/>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="14"/>
+      <c r="AP16" s="14"/>
+      <c r="AQ16" s="14"/>
+      <c r="AR16" s="14"/>
+      <c r="AS16" s="14"/>
+      <c r="AT16" s="14"/>
+      <c r="AU16" s="14"/>
+      <c r="AV16" s="14"/>
+      <c r="AW16" s="14"/>
+      <c r="AX16" s="14"/>
+      <c r="AY16" s="14"/>
+    </row>
+    <row r="17" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>12</v>
       </c>
@@ -1594,51 +1556,43 @@
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="12">
-        <f>ROUND(AVERAGE(Z12,Z16),1)</f>
-        <v>5.5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AA17" s="9">
-        <f>ROUND(AVERAGE(AA12,AA16),1)</f>
-        <v>2.5</v>
-      </c>
-      <c r="AC17" s="15"/>
-      <c r="AD17" s="15"/>
-      <c r="AE17" s="15"/>
-      <c r="AH17" s="15"/>
-      <c r="AI17" s="15"/>
-      <c r="AJ17" s="15"/>
-      <c r="AK17" s="15"/>
-      <c r="AL17" s="15"/>
-      <c r="AM17" s="15"/>
-      <c r="AN17" s="15"/>
-      <c r="AO17" s="15"/>
-      <c r="AP17" s="15"/>
-      <c r="AQ17" s="15"/>
-      <c r="AR17" s="15"/>
-      <c r="AS17" s="15"/>
-      <c r="AT17" s="15"/>
-      <c r="AU17" s="15"/>
-      <c r="AV17" s="15"/>
-      <c r="AW17" s="15"/>
-      <c r="AX17" s="15"/>
-      <c r="AY17" s="15"/>
-    </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="AB18" s="17"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-    </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="14"/>
+      <c r="AJ17" s="14"/>
+      <c r="AK17" s="14"/>
+      <c r="AL17" s="14"/>
+      <c r="AM17" s="14"/>
+      <c r="AN17" s="14"/>
+      <c r="AO17" s="14"/>
+      <c r="AP17" s="14"/>
+      <c r="AQ17" s="14"/>
+      <c r="AR17" s="14"/>
+      <c r="AS17" s="14"/>
+      <c r="AT17" s="14"/>
+      <c r="AU17" s="14"/>
+      <c r="AV17" s="14"/>
+      <c r="AW17" s="14"/>
+      <c r="AX17" s="14"/>
+      <c r="AY17" s="14"/>
+    </row>
+    <row r="18" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AB18" s="16"/>
+    </row>
+    <row r="19" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AB19" s="17"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
-    </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AB19" s="16"/>
+    </row>
+    <row r="20" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
@@ -1714,35 +1668,15 @@
       <c r="Y20" s="3">
         <v>20</v>
       </c>
-      <c r="Z20" s="16" t="s">
+      <c r="Z20" s="15" t="s">
         <v>4</v>
       </c>
       <c r="AA20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="13"/>
-      <c r="AH20" s="13"/>
-      <c r="AI20" s="13"/>
-      <c r="AJ20" s="13"/>
-      <c r="AK20" s="13"/>
-      <c r="AL20" s="13"/>
-      <c r="AM20" s="13"/>
-      <c r="AN20" s="13"/>
-      <c r="AO20" s="13"/>
-      <c r="AP20" s="13"/>
-      <c r="AQ20" s="13"/>
-      <c r="AR20" s="13"/>
-      <c r="AS20" s="13"/>
-      <c r="AT20" s="13"/>
-      <c r="AU20" s="13"/>
-      <c r="AV20" s="13"/>
-      <c r="AW20" s="13"/>
-      <c r="AX20" s="13"/>
-      <c r="AY20" s="14"/>
-    </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY20" s="13"/>
+    </row>
+    <row r="21" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -1788,29 +1722,29 @@
       <c r="AA21" s="7">
         <v>1</v>
       </c>
-      <c r="AC21" s="15"/>
-      <c r="AD21" s="15"/>
-      <c r="AE21" s="15"/>
-      <c r="AH21" s="15"/>
-      <c r="AI21" s="15"/>
-      <c r="AJ21" s="15"/>
-      <c r="AK21" s="15"/>
-      <c r="AL21" s="15"/>
-      <c r="AM21" s="15"/>
-      <c r="AN21" s="15"/>
-      <c r="AO21" s="15"/>
-      <c r="AP21" s="15"/>
-      <c r="AQ21" s="15"/>
-      <c r="AR21" s="15"/>
-      <c r="AS21" s="15"/>
-      <c r="AT21" s="15"/>
-      <c r="AU21" s="15"/>
-      <c r="AV21" s="15"/>
-      <c r="AW21" s="15"/>
-      <c r="AX21" s="15"/>
-      <c r="AY21" s="15"/>
-    </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="14"/>
+      <c r="AJ21" s="14"/>
+      <c r="AK21" s="14"/>
+      <c r="AL21" s="14"/>
+      <c r="AM21" s="14"/>
+      <c r="AN21" s="14"/>
+      <c r="AO21" s="14"/>
+      <c r="AP21" s="14"/>
+      <c r="AQ21" s="14"/>
+      <c r="AR21" s="14"/>
+      <c r="AS21" s="14"/>
+      <c r="AT21" s="14"/>
+      <c r="AU21" s="14"/>
+      <c r="AV21" s="14"/>
+      <c r="AW21" s="14"/>
+      <c r="AX21" s="14"/>
+      <c r="AY21" s="14"/>
+    </row>
+    <row r="22" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>7</v>
       </c>
@@ -1862,29 +1796,29 @@
       <c r="AA22" s="7">
         <v>12</v>
       </c>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="15"/>
-      <c r="AH22" s="15"/>
-      <c r="AI22" s="15"/>
-      <c r="AJ22" s="15"/>
-      <c r="AK22" s="15"/>
-      <c r="AL22" s="15"/>
-      <c r="AM22" s="15"/>
-      <c r="AN22" s="15"/>
-      <c r="AO22" s="15"/>
-      <c r="AP22" s="15"/>
-      <c r="AQ22" s="15"/>
-      <c r="AR22" s="15"/>
-      <c r="AS22" s="15"/>
-      <c r="AT22" s="15"/>
-      <c r="AU22" s="15"/>
-      <c r="AV22" s="15"/>
-      <c r="AW22" s="15"/>
-      <c r="AX22" s="15"/>
-      <c r="AY22" s="15"/>
-    </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="14"/>
+      <c r="AJ22" s="14"/>
+      <c r="AK22" s="14"/>
+      <c r="AL22" s="14"/>
+      <c r="AM22" s="14"/>
+      <c r="AN22" s="14"/>
+      <c r="AO22" s="14"/>
+      <c r="AP22" s="14"/>
+      <c r="AQ22" s="14"/>
+      <c r="AR22" s="14"/>
+      <c r="AS22" s="14"/>
+      <c r="AT22" s="14"/>
+      <c r="AU22" s="14"/>
+      <c r="AV22" s="14"/>
+      <c r="AW22" s="14"/>
+      <c r="AX22" s="14"/>
+      <c r="AY22" s="14"/>
+    </row>
+    <row r="23" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -1932,29 +1866,29 @@
       <c r="AA23" s="7">
         <v>8</v>
       </c>
-      <c r="AC23" s="15"/>
-      <c r="AD23" s="15"/>
-      <c r="AE23" s="15"/>
-      <c r="AH23" s="15"/>
-      <c r="AI23" s="15"/>
-      <c r="AJ23" s="15"/>
-      <c r="AK23" s="15"/>
-      <c r="AL23" s="15"/>
-      <c r="AM23" s="15"/>
-      <c r="AN23" s="15"/>
-      <c r="AO23" s="15"/>
-      <c r="AP23" s="15"/>
-      <c r="AQ23" s="15"/>
-      <c r="AR23" s="15"/>
-      <c r="AS23" s="15"/>
-      <c r="AT23" s="15"/>
-      <c r="AU23" s="15"/>
-      <c r="AV23" s="15"/>
-      <c r="AW23" s="15"/>
-      <c r="AX23" s="15"/>
-      <c r="AY23" s="15"/>
-    </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="14"/>
+      <c r="AJ23" s="14"/>
+      <c r="AK23" s="14"/>
+      <c r="AL23" s="14"/>
+      <c r="AM23" s="14"/>
+      <c r="AN23" s="14"/>
+      <c r="AO23" s="14"/>
+      <c r="AP23" s="14"/>
+      <c r="AQ23" s="14"/>
+      <c r="AR23" s="14"/>
+      <c r="AS23" s="14"/>
+      <c r="AT23" s="14"/>
+      <c r="AU23" s="14"/>
+      <c r="AV23" s="14"/>
+      <c r="AW23" s="14"/>
+      <c r="AX23" s="14"/>
+      <c r="AY23" s="14"/>
+    </row>
+    <row r="24" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>9</v>
       </c>
@@ -2004,29 +1938,29 @@
       <c r="AA24" s="7">
         <v>9</v>
       </c>
-      <c r="AC24" s="15"/>
-      <c r="AD24" s="15"/>
-      <c r="AE24" s="15"/>
-      <c r="AH24" s="15"/>
-      <c r="AI24" s="15"/>
-      <c r="AJ24" s="15"/>
-      <c r="AK24" s="15"/>
-      <c r="AL24" s="15"/>
-      <c r="AM24" s="15"/>
-      <c r="AN24" s="15"/>
-      <c r="AO24" s="15"/>
-      <c r="AP24" s="15"/>
-      <c r="AQ24" s="15"/>
-      <c r="AR24" s="15"/>
-      <c r="AS24" s="15"/>
-      <c r="AT24" s="15"/>
-      <c r="AU24" s="15"/>
-      <c r="AV24" s="15"/>
-      <c r="AW24" s="15"/>
-      <c r="AX24" s="15"/>
-      <c r="AY24" s="15"/>
-    </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AH24" s="14"/>
+      <c r="AI24" s="14"/>
+      <c r="AJ24" s="14"/>
+      <c r="AK24" s="14"/>
+      <c r="AL24" s="14"/>
+      <c r="AM24" s="14"/>
+      <c r="AN24" s="14"/>
+      <c r="AO24" s="14"/>
+      <c r="AP24" s="14"/>
+      <c r="AQ24" s="14"/>
+      <c r="AR24" s="14"/>
+      <c r="AS24" s="14"/>
+      <c r="AT24" s="14"/>
+      <c r="AU24" s="14"/>
+      <c r="AV24" s="14"/>
+      <c r="AW24" s="14"/>
+      <c r="AX24" s="14"/>
+      <c r="AY24" s="14"/>
+    </row>
+    <row r="25" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>10</v>
       </c>
@@ -2070,29 +2004,29 @@
       <c r="AA25" s="7">
         <v>6</v>
       </c>
-      <c r="AC25" s="15"/>
-      <c r="AD25" s="15"/>
-      <c r="AE25" s="15"/>
-      <c r="AH25" s="15"/>
-      <c r="AI25" s="15"/>
-      <c r="AJ25" s="15"/>
-      <c r="AK25" s="15"/>
-      <c r="AL25" s="15"/>
-      <c r="AM25" s="15"/>
-      <c r="AN25" s="15"/>
-      <c r="AO25" s="15"/>
-      <c r="AP25" s="15"/>
-      <c r="AQ25" s="15"/>
-      <c r="AR25" s="15"/>
-      <c r="AS25" s="15"/>
-      <c r="AT25" s="15"/>
-      <c r="AU25" s="15"/>
-      <c r="AV25" s="15"/>
-      <c r="AW25" s="15"/>
-      <c r="AX25" s="15"/>
-      <c r="AY25" s="15"/>
-    </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="14"/>
+      <c r="AK25" s="14"/>
+      <c r="AL25" s="14"/>
+      <c r="AM25" s="14"/>
+      <c r="AN25" s="14"/>
+      <c r="AO25" s="14"/>
+      <c r="AP25" s="14"/>
+      <c r="AQ25" s="14"/>
+      <c r="AR25" s="14"/>
+      <c r="AS25" s="14"/>
+      <c r="AT25" s="14"/>
+      <c r="AU25" s="14"/>
+      <c r="AV25" s="14"/>
+      <c r="AW25" s="14"/>
+      <c r="AX25" s="14"/>
+      <c r="AY25" s="14"/>
+    </row>
+    <row r="26" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>15</v>
       </c>
@@ -2163,34 +2097,32 @@
       </c>
       <c r="Y26" s="6"/>
       <c r="Z26" s="12">
-        <f>ROUND(AVERAGE(Z21,Z25),1)</f>
-        <v>6.5</v>
+        <v>11.4</v>
       </c>
       <c r="AA26" s="9">
-        <f>ROUND(AVERAGE(AA21,AA25),1)</f>
-        <v>3.5</v>
-      </c>
-      <c r="AC26" s="15"/>
-      <c r="AD26" s="15"/>
-      <c r="AE26" s="15"/>
-      <c r="AH26" s="15"/>
-      <c r="AI26" s="15"/>
-      <c r="AJ26" s="15"/>
-      <c r="AK26" s="15"/>
-      <c r="AL26" s="15"/>
-      <c r="AM26" s="15"/>
-      <c r="AN26" s="15"/>
-      <c r="AO26" s="15"/>
-      <c r="AP26" s="15"/>
-      <c r="AQ26" s="15"/>
-      <c r="AR26" s="15"/>
-      <c r="AS26" s="15"/>
-      <c r="AT26" s="15"/>
-      <c r="AU26" s="15"/>
-      <c r="AV26" s="15"/>
-      <c r="AW26" s="15"/>
-      <c r="AX26" s="15"/>
-      <c r="AY26" s="15"/>
+        <v>7.2</v>
+      </c>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AH26" s="14"/>
+      <c r="AI26" s="14"/>
+      <c r="AJ26" s="14"/>
+      <c r="AK26" s="14"/>
+      <c r="AL26" s="14"/>
+      <c r="AM26" s="14"/>
+      <c r="AN26" s="14"/>
+      <c r="AO26" s="14"/>
+      <c r="AP26" s="14"/>
+      <c r="AQ26" s="14"/>
+      <c r="AR26" s="14"/>
+      <c r="AS26" s="14"/>
+      <c r="AT26" s="14"/>
+      <c r="AU26" s="14"/>
+      <c r="AV26" s="14"/>
+      <c r="AW26" s="14"/>
+      <c r="AX26" s="14"/>
+      <c r="AY26" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/practica 2/diagramas/Ejer 4 diagramas.xlsx
+++ b/practica 2/diagramas/Ejer 4 diagramas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguspc\Desktop\facu\2do\2do semestre\ISO\practica 2\diagramas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C625F2-53C9-464E-A4AC-49E1AED25A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE58B04-D2C9-4E3F-93AA-FB93FF348A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F2353754-173D-4900-A564-D1A35AFCC5F7}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="23256" windowHeight="12456" xr2:uid="{F2353754-173D-4900-A564-D1A35AFCC5F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -575,7 +575,7 @@
   <dimension ref="A1:AY26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AA27" sqref="AA27"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
